--- a/public/SP500.xlsx
+++ b/public/SP500.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserFiles\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserFiles\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2656AD09-DBA2-4459-A706-DF396B3C2BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E2D60F-562C-49C2-87ED-D615940765AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="5055" windowWidth="21015" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily, Close" sheetId="2" r:id="rId1"/>
@@ -19,22 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>SP500</t>
-  </si>
-  <si>
-    <t>observation_date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -44,12 +30,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -68,32 +52,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -398,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B403"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="I306" sqref="I306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,3177 +377,2471 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+      <c r="A1" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B1" s="1">
+        <v>5116.17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>45293</v>
+      <c r="A2" s="2">
+        <v>45412</v>
       </c>
       <c r="B2" s="1">
-        <v>4742.83</v>
+        <v>5035.6899999999996</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>45294</v>
+      <c r="A3" s="2">
+        <v>45413</v>
       </c>
       <c r="B3" s="1">
-        <v>4704.8100000000004</v>
+        <v>5018.3900000000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>45295</v>
+      <c r="A4" s="2">
+        <v>45414</v>
       </c>
       <c r="B4" s="1">
-        <v>4688.68</v>
+        <v>5064.2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>45296</v>
+      <c r="A5" s="2">
+        <v>45415</v>
       </c>
       <c r="B5" s="1">
-        <v>4697.24</v>
+        <v>5127.79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>45299</v>
+      <c r="A6" s="2">
+        <v>45418</v>
       </c>
       <c r="B6" s="1">
-        <v>4763.54</v>
+        <v>5180.74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>45300</v>
+      <c r="A7" s="2">
+        <v>45419</v>
       </c>
       <c r="B7" s="1">
-        <v>4756.5</v>
+        <v>5187.7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>45301</v>
+      <c r="A8" s="2">
+        <v>45420</v>
       </c>
       <c r="B8" s="1">
-        <v>4783.45</v>
+        <v>5187.67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>45302</v>
+      <c r="A9" s="2">
+        <v>45421</v>
       </c>
       <c r="B9" s="1">
-        <v>4780.24</v>
+        <v>5214.08</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>45303</v>
+      <c r="A10" s="2">
+        <v>45422</v>
       </c>
       <c r="B10" s="1">
-        <v>4783.83</v>
+        <v>5222.68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>45306</v>
+      <c r="A11" s="2">
+        <v>45425</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5221.42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>45307</v>
+      <c r="A12" s="2">
+        <v>45426</v>
       </c>
       <c r="B12" s="1">
-        <v>4765.9799999999996</v>
+        <v>5246.68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>45308</v>
+      <c r="A13" s="2">
+        <v>45427</v>
       </c>
       <c r="B13" s="1">
-        <v>4739.21</v>
+        <v>5308.15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>45309</v>
+      <c r="A14" s="2">
+        <v>45428</v>
       </c>
       <c r="B14" s="1">
-        <v>4780.9399999999996</v>
+        <v>5297.1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>45310</v>
+      <c r="A15" s="2">
+        <v>45429</v>
       </c>
       <c r="B15" s="1">
-        <v>4839.8100000000004</v>
+        <v>5303.27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>45313</v>
+      <c r="A16" s="2">
+        <v>45432</v>
       </c>
       <c r="B16" s="1">
-        <v>4850.43</v>
+        <v>5308.13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>45314</v>
+      <c r="A17" s="2">
+        <v>45433</v>
       </c>
       <c r="B17" s="1">
-        <v>4864.6000000000004</v>
+        <v>5321.41</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>45315</v>
+      <c r="A18" s="2">
+        <v>45434</v>
       </c>
       <c r="B18" s="1">
-        <v>4868.55</v>
+        <v>5307.01</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>45316</v>
+      <c r="A19" s="2">
+        <v>45435</v>
       </c>
       <c r="B19" s="1">
-        <v>4894.16</v>
+        <v>5267.84</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>45317</v>
+      <c r="A20" s="2">
+        <v>45436</v>
       </c>
       <c r="B20" s="1">
-        <v>4890.97</v>
+        <v>5304.72</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>45320</v>
-      </c>
-      <c r="B21" s="1">
-        <v>4927.93</v>
+      <c r="A21" s="2">
+        <v>45439</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>45321</v>
+      <c r="A22" s="2">
+        <v>45440</v>
       </c>
       <c r="B22" s="1">
-        <v>4924.97</v>
+        <v>5306.04</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>45322</v>
+      <c r="A23" s="2">
+        <v>45441</v>
       </c>
       <c r="B23" s="1">
-        <v>4845.6499999999996</v>
+        <v>5266.95</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>45323</v>
+      <c r="A24" s="2">
+        <v>45442</v>
       </c>
       <c r="B24" s="1">
-        <v>4906.1899999999996</v>
+        <v>5235.4799999999996</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>45324</v>
+      <c r="A25" s="2">
+        <v>45443</v>
       </c>
       <c r="B25" s="1">
-        <v>4958.6099999999997</v>
+        <v>5277.51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>45327</v>
+      <c r="A26" s="2">
+        <v>45446</v>
       </c>
       <c r="B26" s="1">
-        <v>4942.8100000000004</v>
+        <v>5283.4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>45328</v>
+      <c r="A27" s="2">
+        <v>45447</v>
       </c>
       <c r="B27" s="1">
-        <v>4954.2299999999996</v>
+        <v>5291.34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>45329</v>
+      <c r="A28" s="2">
+        <v>45448</v>
       </c>
       <c r="B28" s="1">
-        <v>4995.0600000000004</v>
+        <v>5354.03</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>45330</v>
+      <c r="A29" s="2">
+        <v>45449</v>
       </c>
       <c r="B29" s="1">
-        <v>4997.91</v>
+        <v>5352.96</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>45331</v>
+      <c r="A30" s="2">
+        <v>45450</v>
       </c>
       <c r="B30" s="1">
-        <v>5026.6099999999997</v>
+        <v>5346.99</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>45334</v>
+      <c r="A31" s="2">
+        <v>45453</v>
       </c>
       <c r="B31" s="1">
-        <v>5021.84</v>
+        <v>5360.79</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>45335</v>
+      <c r="A32" s="2">
+        <v>45454</v>
       </c>
       <c r="B32" s="1">
-        <v>4953.17</v>
+        <v>5375.32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>45336</v>
+      <c r="A33" s="2">
+        <v>45455</v>
       </c>
       <c r="B33" s="1">
-        <v>5000.62</v>
+        <v>5421.03</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>45337</v>
+      <c r="A34" s="2">
+        <v>45456</v>
       </c>
       <c r="B34" s="1">
-        <v>5029.7299999999996</v>
+        <v>5433.74</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>45338</v>
+      <c r="A35" s="2">
+        <v>45457</v>
       </c>
       <c r="B35" s="1">
-        <v>5005.57</v>
+        <v>5431.6</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>45341</v>
+      <c r="A36" s="2">
+        <v>45460</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5473.23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>45342</v>
+      <c r="A37" s="2">
+        <v>45461</v>
       </c>
       <c r="B37" s="1">
-        <v>4975.51</v>
+        <v>5487.03</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>45343</v>
-      </c>
-      <c r="B38" s="1">
-        <v>4981.8</v>
+      <c r="A38" s="2">
+        <v>45462</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>45344</v>
+      <c r="A39" s="2">
+        <v>45463</v>
       </c>
       <c r="B39" s="1">
-        <v>5087.03</v>
+        <v>5473.17</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>45345</v>
+      <c r="A40" s="2">
+        <v>45464</v>
       </c>
       <c r="B40" s="1">
-        <v>5088.8</v>
+        <v>5464.62</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>45348</v>
+      <c r="A41" s="2">
+        <v>45467</v>
       </c>
       <c r="B41" s="1">
-        <v>5069.53</v>
+        <v>5447.87</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>45349</v>
+      <c r="A42" s="2">
+        <v>45468</v>
       </c>
       <c r="B42" s="1">
-        <v>5078.18</v>
+        <v>5469.3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>45350</v>
+      <c r="A43" s="2">
+        <v>45469</v>
       </c>
       <c r="B43" s="1">
-        <v>5069.76</v>
+        <v>5477.9</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>45351</v>
+      <c r="A44" s="2">
+        <v>45470</v>
       </c>
       <c r="B44" s="1">
-        <v>5096.2700000000004</v>
+        <v>5482.87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>45352</v>
+      <c r="A45" s="2">
+        <v>45471</v>
       </c>
       <c r="B45" s="1">
-        <v>5137.08</v>
+        <v>5460.48</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>45355</v>
+      <c r="A46" s="2">
+        <v>45474</v>
       </c>
       <c r="B46" s="1">
-        <v>5130.95</v>
+        <v>5475.09</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>45356</v>
+      <c r="A47" s="2">
+        <v>45475</v>
       </c>
       <c r="B47" s="1">
-        <v>5078.6499999999996</v>
+        <v>5509.01</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>45357</v>
+      <c r="A48" s="2">
+        <v>45476</v>
       </c>
       <c r="B48" s="1">
-        <v>5104.76</v>
+        <v>5537.02</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>45358</v>
-      </c>
-      <c r="B49" s="1">
-        <v>5157.3599999999997</v>
+      <c r="A49" s="2">
+        <v>45477</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>45359</v>
+      <c r="A50" s="2">
+        <v>45478</v>
       </c>
       <c r="B50" s="1">
-        <v>5123.6899999999996</v>
+        <v>5567.19</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>45362</v>
+      <c r="A51" s="2">
+        <v>45481</v>
       </c>
       <c r="B51" s="1">
-        <v>5117.9399999999996</v>
+        <v>5572.85</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>45363</v>
+      <c r="A52" s="2">
+        <v>45482</v>
       </c>
       <c r="B52" s="1">
-        <v>5175.2700000000004</v>
+        <v>5576.98</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>45364</v>
+      <c r="A53" s="2">
+        <v>45483</v>
       </c>
       <c r="B53" s="1">
-        <v>5165.3100000000004</v>
+        <v>5633.91</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>45365</v>
+      <c r="A54" s="2">
+        <v>45484</v>
       </c>
       <c r="B54" s="1">
-        <v>5150.4799999999996</v>
+        <v>5584.54</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>45366</v>
+      <c r="A55" s="2">
+        <v>45485</v>
       </c>
       <c r="B55" s="1">
-        <v>5117.09</v>
+        <v>5615.35</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>45369</v>
+      <c r="A56" s="2">
+        <v>45488</v>
       </c>
       <c r="B56" s="1">
-        <v>5149.42</v>
+        <v>5631.22</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>45370</v>
+      <c r="A57" s="2">
+        <v>45489</v>
       </c>
       <c r="B57" s="1">
-        <v>5178.51</v>
+        <v>5667.2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>45371</v>
+      <c r="A58" s="2">
+        <v>45490</v>
       </c>
       <c r="B58" s="1">
-        <v>5224.62</v>
+        <v>5588.27</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>45372</v>
+      <c r="A59" s="2">
+        <v>45491</v>
       </c>
       <c r="B59" s="1">
-        <v>5241.53</v>
+        <v>5544.59</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>45373</v>
+      <c r="A60" s="2">
+        <v>45492</v>
       </c>
       <c r="B60" s="1">
-        <v>5234.18</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>45376</v>
+      <c r="A61" s="2">
+        <v>45495</v>
       </c>
       <c r="B61" s="1">
-        <v>5218.1899999999996</v>
+        <v>5564.41</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>45377</v>
+      <c r="A62" s="2">
+        <v>45496</v>
       </c>
       <c r="B62" s="1">
-        <v>5203.58</v>
+        <v>5555.74</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>45378</v>
+      <c r="A63" s="2">
+        <v>45497</v>
       </c>
       <c r="B63" s="1">
-        <v>5248.49</v>
+        <v>5427.13</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>45379</v>
+      <c r="A64" s="2">
+        <v>45498</v>
       </c>
       <c r="B64" s="1">
-        <v>5254.35</v>
+        <v>5399.22</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>45380</v>
+      <c r="A65" s="2">
+        <v>45499</v>
+      </c>
+      <c r="B65" s="1">
+        <v>5459.1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>45383</v>
+      <c r="A66" s="2">
+        <v>45502</v>
       </c>
       <c r="B66" s="1">
-        <v>5243.77</v>
+        <v>5463.54</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>45384</v>
+      <c r="A67" s="2">
+        <v>45503</v>
       </c>
       <c r="B67" s="1">
-        <v>5205.8100000000004</v>
+        <v>5436.44</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>45385</v>
+      <c r="A68" s="2">
+        <v>45504</v>
       </c>
       <c r="B68" s="1">
-        <v>5211.49</v>
+        <v>5522.3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>45386</v>
+      <c r="A69" s="2">
+        <v>45505</v>
       </c>
       <c r="B69" s="1">
-        <v>5147.21</v>
+        <v>5446.68</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>45387</v>
+      <c r="A70" s="2">
+        <v>45506</v>
       </c>
       <c r="B70" s="1">
-        <v>5204.34</v>
+        <v>5346.56</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>45390</v>
+      <c r="A71" s="2">
+        <v>45509</v>
       </c>
       <c r="B71" s="1">
-        <v>5202.3900000000003</v>
+        <v>5186.33</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>45391</v>
+      <c r="A72" s="2">
+        <v>45510</v>
       </c>
       <c r="B72" s="1">
-        <v>5209.91</v>
+        <v>5240.03</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>45392</v>
+      <c r="A73" s="2">
+        <v>45511</v>
       </c>
       <c r="B73" s="1">
-        <v>5160.6400000000003</v>
+        <v>5199.5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>45393</v>
+      <c r="A74" s="2">
+        <v>45512</v>
       </c>
       <c r="B74" s="1">
-        <v>5199.0600000000004</v>
+        <v>5319.31</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>45394</v>
+      <c r="A75" s="2">
+        <v>45513</v>
       </c>
       <c r="B75" s="1">
-        <v>5123.41</v>
+        <v>5344.16</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>45397</v>
+      <c r="A76" s="2">
+        <v>45516</v>
       </c>
       <c r="B76" s="1">
-        <v>5061.82</v>
+        <v>5344.39</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>45398</v>
+      <c r="A77" s="2">
+        <v>45517</v>
       </c>
       <c r="B77" s="1">
-        <v>5051.41</v>
+        <v>5434.43</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>45399</v>
+      <c r="A78" s="2">
+        <v>45518</v>
       </c>
       <c r="B78" s="1">
-        <v>5022.21</v>
+        <v>5455.21</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>45400</v>
+      <c r="A79" s="2">
+        <v>45519</v>
       </c>
       <c r="B79" s="1">
-        <v>5011.12</v>
+        <v>5543.22</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>45401</v>
+      <c r="A80" s="2">
+        <v>45520</v>
       </c>
       <c r="B80" s="1">
-        <v>4967.2299999999996</v>
+        <v>5554.25</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>45404</v>
+      <c r="A81" s="2">
+        <v>45523</v>
       </c>
       <c r="B81" s="1">
-        <v>5010.6000000000004</v>
+        <v>5608.25</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>45405</v>
+      <c r="A82" s="2">
+        <v>45524</v>
       </c>
       <c r="B82" s="1">
-        <v>5070.55</v>
+        <v>5597.12</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>45406</v>
+      <c r="A83" s="2">
+        <v>45525</v>
       </c>
       <c r="B83" s="1">
-        <v>5071.63</v>
+        <v>5620.85</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>45407</v>
+      <c r="A84" s="2">
+        <v>45526</v>
       </c>
       <c r="B84" s="1">
-        <v>5048.42</v>
+        <v>5570.64</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>45408</v>
+      <c r="A85" s="2">
+        <v>45527</v>
       </c>
       <c r="B85" s="1">
-        <v>5099.96</v>
+        <v>5634.61</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>45411</v>
+      <c r="A86" s="2">
+        <v>45530</v>
       </c>
       <c r="B86" s="1">
-        <v>5116.17</v>
+        <v>5616.84</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>45412</v>
+      <c r="A87" s="2">
+        <v>45531</v>
       </c>
       <c r="B87" s="1">
-        <v>5035.6899999999996</v>
+        <v>5625.8</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>45413</v>
+      <c r="A88" s="2">
+        <v>45532</v>
       </c>
       <c r="B88" s="1">
-        <v>5018.3900000000003</v>
+        <v>5592.18</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>45414</v>
+      <c r="A89" s="2">
+        <v>45533</v>
       </c>
       <c r="B89" s="1">
-        <v>5064.2</v>
+        <v>5591.96</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>45415</v>
+      <c r="A90" s="2">
+        <v>45534</v>
       </c>
       <c r="B90" s="1">
-        <v>5127.79</v>
+        <v>5648.4</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>45418</v>
-      </c>
-      <c r="B91" s="1">
-        <v>5180.74</v>
+      <c r="A91" s="2">
+        <v>45537</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>45419</v>
+      <c r="A92" s="2">
+        <v>45538</v>
       </c>
       <c r="B92" s="1">
-        <v>5187.7</v>
+        <v>5528.93</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>45420</v>
+      <c r="A93" s="2">
+        <v>45539</v>
       </c>
       <c r="B93" s="1">
-        <v>5187.67</v>
+        <v>5520.07</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>45421</v>
+      <c r="A94" s="2">
+        <v>45540</v>
       </c>
       <c r="B94" s="1">
-        <v>5214.08</v>
+        <v>5503.41</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>45422</v>
+      <c r="A95" s="2">
+        <v>45541</v>
       </c>
       <c r="B95" s="1">
-        <v>5222.68</v>
+        <v>5408.42</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>45425</v>
+      <c r="A96" s="2">
+        <v>45544</v>
       </c>
       <c r="B96" s="1">
-        <v>5221.42</v>
+        <v>5471.05</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>45426</v>
+      <c r="A97" s="2">
+        <v>45545</v>
       </c>
       <c r="B97" s="1">
-        <v>5246.68</v>
+        <v>5495.52</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>45427</v>
+      <c r="A98" s="2">
+        <v>45546</v>
       </c>
       <c r="B98" s="1">
-        <v>5308.15</v>
+        <v>5554.13</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>45428</v>
+      <c r="A99" s="2">
+        <v>45547</v>
       </c>
       <c r="B99" s="1">
-        <v>5297.1</v>
+        <v>5595.76</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>45429</v>
+      <c r="A100" s="2">
+        <v>45548</v>
       </c>
       <c r="B100" s="1">
-        <v>5303.27</v>
+        <v>5626.02</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>45432</v>
+      <c r="A101" s="2">
+        <v>45551</v>
       </c>
       <c r="B101" s="1">
-        <v>5308.13</v>
+        <v>5633.09</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>45433</v>
+      <c r="A102" s="2">
+        <v>45552</v>
       </c>
       <c r="B102" s="1">
-        <v>5321.41</v>
+        <v>5634.58</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>45434</v>
+      <c r="A103" s="2">
+        <v>45553</v>
       </c>
       <c r="B103" s="1">
-        <v>5307.01</v>
+        <v>5618.26</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>45435</v>
+      <c r="A104" s="2">
+        <v>45554</v>
       </c>
       <c r="B104" s="1">
-        <v>5267.84</v>
+        <v>5713.64</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <v>45436</v>
+      <c r="A105" s="2">
+        <v>45555</v>
       </c>
       <c r="B105" s="1">
-        <v>5304.72</v>
+        <v>5702.55</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>45439</v>
+      <c r="A106" s="2">
+        <v>45558</v>
+      </c>
+      <c r="B106" s="1">
+        <v>5718.57</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>45440</v>
+      <c r="A107" s="2">
+        <v>45559</v>
       </c>
       <c r="B107" s="1">
-        <v>5306.04</v>
+        <v>5732.93</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
-        <v>45441</v>
+      <c r="A108" s="2">
+        <v>45560</v>
       </c>
       <c r="B108" s="1">
-        <v>5266.95</v>
+        <v>5722.26</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>45442</v>
+      <c r="A109" s="2">
+        <v>45561</v>
       </c>
       <c r="B109" s="1">
-        <v>5235.4799999999996</v>
+        <v>5745.37</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>45443</v>
+      <c r="A110" s="2">
+        <v>45562</v>
       </c>
       <c r="B110" s="1">
-        <v>5277.51</v>
+        <v>5738.17</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>45446</v>
+      <c r="A111" s="2">
+        <v>45565</v>
       </c>
       <c r="B111" s="1">
-        <v>5283.4</v>
+        <v>5762.48</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>45447</v>
+      <c r="A112" s="2">
+        <v>45566</v>
       </c>
       <c r="B112" s="1">
-        <v>5291.34</v>
+        <v>5708.75</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>45448</v>
+      <c r="A113" s="2">
+        <v>45567</v>
       </c>
       <c r="B113" s="1">
-        <v>5354.03</v>
+        <v>5709.54</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>45449</v>
+      <c r="A114" s="2">
+        <v>45568</v>
       </c>
       <c r="B114" s="1">
-        <v>5352.96</v>
+        <v>5699.94</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>45450</v>
+      <c r="A115" s="2">
+        <v>45569</v>
       </c>
       <c r="B115" s="1">
-        <v>5346.99</v>
+        <v>5751.07</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
-        <v>45453</v>
+      <c r="A116" s="2">
+        <v>45572</v>
       </c>
       <c r="B116" s="1">
-        <v>5360.79</v>
+        <v>5695.94</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
-        <v>45454</v>
+      <c r="A117" s="2">
+        <v>45573</v>
       </c>
       <c r="B117" s="1">
-        <v>5375.32</v>
+        <v>5751.13</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
-        <v>45455</v>
+      <c r="A118" s="2">
+        <v>45574</v>
       </c>
       <c r="B118" s="1">
-        <v>5421.03</v>
+        <v>5792.04</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
-        <v>45456</v>
+      <c r="A119" s="2">
+        <v>45575</v>
       </c>
       <c r="B119" s="1">
-        <v>5433.74</v>
+        <v>5780.05</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
-        <v>45457</v>
+      <c r="A120" s="2">
+        <v>45576</v>
       </c>
       <c r="B120" s="1">
-        <v>5431.6</v>
+        <v>5815.03</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
-        <v>45460</v>
+      <c r="A121" s="2">
+        <v>45579</v>
       </c>
       <c r="B121" s="1">
-        <v>5473.23</v>
+        <v>5859.85</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
-        <v>45461</v>
+      <c r="A122" s="2">
+        <v>45580</v>
       </c>
       <c r="B122" s="1">
-        <v>5487.03</v>
+        <v>5815.26</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
-        <v>45462</v>
+      <c r="A123" s="2">
+        <v>45581</v>
+      </c>
+      <c r="B123" s="1">
+        <v>5842.47</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
-        <v>45463</v>
+      <c r="A124" s="2">
+        <v>45582</v>
       </c>
       <c r="B124" s="1">
-        <v>5473.17</v>
+        <v>5841.47</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
-        <v>45464</v>
+      <c r="A125" s="2">
+        <v>45583</v>
       </c>
       <c r="B125" s="1">
-        <v>5464.62</v>
+        <v>5864.67</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
-        <v>45467</v>
+      <c r="A126" s="2">
+        <v>45586</v>
       </c>
       <c r="B126" s="1">
-        <v>5447.87</v>
+        <v>5853.98</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
-        <v>45468</v>
+      <c r="A127" s="2">
+        <v>45587</v>
       </c>
       <c r="B127" s="1">
-        <v>5469.3</v>
+        <v>5851.2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
-        <v>45469</v>
+      <c r="A128" s="2">
+        <v>45588</v>
       </c>
       <c r="B128" s="1">
-        <v>5477.9</v>
+        <v>5797.42</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
-        <v>45470</v>
+      <c r="A129" s="2">
+        <v>45589</v>
       </c>
       <c r="B129" s="1">
-        <v>5482.87</v>
+        <v>5809.86</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
-        <v>45471</v>
+      <c r="A130" s="2">
+        <v>45590</v>
       </c>
       <c r="B130" s="1">
-        <v>5460.48</v>
+        <v>5808.12</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
-        <v>45474</v>
+      <c r="A131" s="2">
+        <v>45593</v>
       </c>
       <c r="B131" s="1">
-        <v>5475.09</v>
+        <v>5823.52</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
-        <v>45475</v>
+      <c r="A132" s="2">
+        <v>45594</v>
       </c>
       <c r="B132" s="1">
-        <v>5509.01</v>
+        <v>5832.92</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
-        <v>45476</v>
+      <c r="A133" s="2">
+        <v>45595</v>
       </c>
       <c r="B133" s="1">
-        <v>5537.02</v>
+        <v>5813.67</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
-        <v>45477</v>
+      <c r="A134" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B134" s="1">
+        <v>5705.45</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
-        <v>45478</v>
+      <c r="A135" s="2">
+        <v>45597</v>
       </c>
       <c r="B135" s="1">
-        <v>5567.19</v>
+        <v>5728.8</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
-        <v>45481</v>
+      <c r="A136" s="2">
+        <v>45600</v>
       </c>
       <c r="B136" s="1">
-        <v>5572.85</v>
+        <v>5712.69</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
-        <v>45482</v>
+      <c r="A137" s="2">
+        <v>45601</v>
       </c>
       <c r="B137" s="1">
-        <v>5576.98</v>
+        <v>5782.76</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
-        <v>45483</v>
+      <c r="A138" s="2">
+        <v>45602</v>
       </c>
       <c r="B138" s="1">
-        <v>5633.91</v>
+        <v>5929.04</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
-        <v>45484</v>
+      <c r="A139" s="2">
+        <v>45603</v>
       </c>
       <c r="B139" s="1">
-        <v>5584.54</v>
+        <v>5973.1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
-        <v>45485</v>
+      <c r="A140" s="2">
+        <v>45604</v>
       </c>
       <c r="B140" s="1">
-        <v>5615.35</v>
+        <v>5995.54</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
-        <v>45488</v>
+      <c r="A141" s="2">
+        <v>45607</v>
       </c>
       <c r="B141" s="1">
-        <v>5631.22</v>
+        <v>6001.35</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
-        <v>45489</v>
+      <c r="A142" s="2">
+        <v>45608</v>
       </c>
       <c r="B142" s="1">
-        <v>5667.2</v>
+        <v>5983.99</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
-        <v>45490</v>
+      <c r="A143" s="2">
+        <v>45609</v>
       </c>
       <c r="B143" s="1">
-        <v>5588.27</v>
+        <v>5985.38</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
-        <v>45491</v>
+      <c r="A144" s="2">
+        <v>45610</v>
       </c>
       <c r="B144" s="1">
-        <v>5544.59</v>
+        <v>5949.17</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
-        <v>45492</v>
+      <c r="A145" s="2">
+        <v>45611</v>
       </c>
       <c r="B145" s="1">
-        <v>5505</v>
+        <v>5870.62</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
-        <v>45495</v>
+      <c r="A146" s="2">
+        <v>45614</v>
       </c>
       <c r="B146" s="1">
-        <v>5564.41</v>
+        <v>5893.62</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
-        <v>45496</v>
+      <c r="A147" s="2">
+        <v>45615</v>
       </c>
       <c r="B147" s="1">
-        <v>5555.74</v>
+        <v>5916.98</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
-        <v>45497</v>
+      <c r="A148" s="2">
+        <v>45616</v>
       </c>
       <c r="B148" s="1">
-        <v>5427.13</v>
+        <v>5917.11</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
-        <v>45498</v>
+      <c r="A149" s="2">
+        <v>45617</v>
       </c>
       <c r="B149" s="1">
-        <v>5399.22</v>
+        <v>5948.71</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
-        <v>45499</v>
+      <c r="A150" s="2">
+        <v>45618</v>
       </c>
       <c r="B150" s="1">
-        <v>5459.1</v>
+        <v>5969.34</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
-        <v>45502</v>
+      <c r="A151" s="2">
+        <v>45621</v>
       </c>
       <c r="B151" s="1">
-        <v>5463.54</v>
+        <v>5987.37</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
-        <v>45503</v>
+      <c r="A152" s="2">
+        <v>45622</v>
       </c>
       <c r="B152" s="1">
-        <v>5436.44</v>
+        <v>6021.63</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
-        <v>45504</v>
+      <c r="A153" s="2">
+        <v>45623</v>
       </c>
       <c r="B153" s="1">
-        <v>5522.3</v>
+        <v>5998.74</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
-        <v>45505</v>
-      </c>
-      <c r="B154" s="1">
-        <v>5446.68</v>
+      <c r="A154" s="2">
+        <v>45624</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
-        <v>45506</v>
+      <c r="A155" s="2">
+        <v>45625</v>
       </c>
       <c r="B155" s="1">
-        <v>5346.56</v>
+        <v>6032.38</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
-        <v>45509</v>
+      <c r="A156" s="2">
+        <v>45628</v>
       </c>
       <c r="B156" s="1">
-        <v>5186.33</v>
+        <v>6047.15</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
-        <v>45510</v>
+      <c r="A157" s="2">
+        <v>45629</v>
       </c>
       <c r="B157" s="1">
-        <v>5240.03</v>
+        <v>6049.88</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
-        <v>45511</v>
+      <c r="A158" s="2">
+        <v>45630</v>
       </c>
       <c r="B158" s="1">
-        <v>5199.5</v>
+        <v>6086.49</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
-        <v>45512</v>
+      <c r="A159" s="2">
+        <v>45631</v>
       </c>
       <c r="B159" s="1">
-        <v>5319.31</v>
+        <v>6075.11</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
-        <v>45513</v>
+      <c r="A160" s="2">
+        <v>45632</v>
       </c>
       <c r="B160" s="1">
-        <v>5344.16</v>
+        <v>6090.27</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
-        <v>45516</v>
+      <c r="A161" s="2">
+        <v>45635</v>
       </c>
       <c r="B161" s="1">
-        <v>5344.39</v>
+        <v>6052.85</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
-        <v>45517</v>
+      <c r="A162" s="2">
+        <v>45636</v>
       </c>
       <c r="B162" s="1">
-        <v>5434.43</v>
+        <v>6034.91</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
-        <v>45518</v>
+      <c r="A163" s="2">
+        <v>45637</v>
       </c>
       <c r="B163" s="1">
-        <v>5455.21</v>
+        <v>6084.19</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
-        <v>45519</v>
+      <c r="A164" s="2">
+        <v>45638</v>
       </c>
       <c r="B164" s="1">
-        <v>5543.22</v>
+        <v>6051.25</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
-        <v>45520</v>
+      <c r="A165" s="2">
+        <v>45639</v>
       </c>
       <c r="B165" s="1">
-        <v>5554.25</v>
+        <v>6051.09</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
-        <v>45523</v>
+      <c r="A166" s="2">
+        <v>45642</v>
       </c>
       <c r="B166" s="1">
-        <v>5608.25</v>
+        <v>6074.08</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
-        <v>45524</v>
+      <c r="A167" s="2">
+        <v>45643</v>
       </c>
       <c r="B167" s="1">
-        <v>5597.12</v>
+        <v>6050.61</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
-        <v>45525</v>
+      <c r="A168" s="2">
+        <v>45644</v>
       </c>
       <c r="B168" s="1">
-        <v>5620.85</v>
+        <v>5872.16</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
-        <v>45526</v>
+      <c r="A169" s="2">
+        <v>45645</v>
       </c>
       <c r="B169" s="1">
-        <v>5570.64</v>
+        <v>5867.08</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
-        <v>45527</v>
+      <c r="A170" s="2">
+        <v>45646</v>
       </c>
       <c r="B170" s="1">
-        <v>5634.61</v>
+        <v>5930.85</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
-        <v>45530</v>
+      <c r="A171" s="2">
+        <v>45649</v>
       </c>
       <c r="B171" s="1">
-        <v>5616.84</v>
+        <v>5974.07</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
-        <v>45531</v>
+      <c r="A172" s="2">
+        <v>45650</v>
       </c>
       <c r="B172" s="1">
-        <v>5625.8</v>
+        <v>6040.04</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
-        <v>45532</v>
-      </c>
-      <c r="B173" s="1">
-        <v>5592.18</v>
+      <c r="A173" s="2">
+        <v>45651</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
-        <v>45533</v>
+      <c r="A174" s="2">
+        <v>45652</v>
       </c>
       <c r="B174" s="1">
-        <v>5591.96</v>
+        <v>6037.59</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
-        <v>45534</v>
+      <c r="A175" s="2">
+        <v>45653</v>
       </c>
       <c r="B175" s="1">
-        <v>5648.4</v>
+        <v>5970.84</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
-        <v>45537</v>
+      <c r="A176" s="2">
+        <v>45656</v>
+      </c>
+      <c r="B176" s="1">
+        <v>5906.94</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
-        <v>45538</v>
+      <c r="A177" s="2">
+        <v>45657</v>
       </c>
       <c r="B177" s="1">
-        <v>5528.93</v>
+        <v>5881.63</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
-        <v>45539</v>
-      </c>
-      <c r="B178" s="1">
-        <v>5520.07</v>
+      <c r="A178" s="2">
+        <v>45658</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
-        <v>45540</v>
+      <c r="A179" s="2">
+        <v>45659</v>
       </c>
       <c r="B179" s="1">
-        <v>5503.41</v>
+        <v>5868.55</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
-        <v>45541</v>
+      <c r="A180" s="2">
+        <v>45660</v>
       </c>
       <c r="B180" s="1">
-        <v>5408.42</v>
+        <v>5942.47</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
-        <v>45544</v>
+      <c r="A181" s="2">
+        <v>45663</v>
       </c>
       <c r="B181" s="1">
-        <v>5471.05</v>
+        <v>5975.38</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
-        <v>45545</v>
+      <c r="A182" s="2">
+        <v>45664</v>
       </c>
       <c r="B182" s="1">
-        <v>5495.52</v>
+        <v>5909.03</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
-        <v>45546</v>
+      <c r="A183" s="2">
+        <v>45665</v>
       </c>
       <c r="B183" s="1">
-        <v>5554.13</v>
+        <v>5918.25</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
-        <v>45547</v>
-      </c>
-      <c r="B184" s="1">
-        <v>5595.76</v>
+      <c r="A184" s="2">
+        <v>45666</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
-        <v>45548</v>
+      <c r="A185" s="2">
+        <v>45667</v>
       </c>
       <c r="B185" s="1">
-        <v>5626.02</v>
+        <v>5827.04</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
-        <v>45551</v>
+      <c r="A186" s="2">
+        <v>45670</v>
       </c>
       <c r="B186" s="1">
-        <v>5633.09</v>
+        <v>5836.22</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
-        <v>45552</v>
+      <c r="A187" s="2">
+        <v>45671</v>
       </c>
       <c r="B187" s="1">
-        <v>5634.58</v>
+        <v>5842.91</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
-        <v>45553</v>
+      <c r="A188" s="2">
+        <v>45672</v>
       </c>
       <c r="B188" s="1">
-        <v>5618.26</v>
+        <v>5949.91</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
-        <v>45554</v>
+      <c r="A189" s="2">
+        <v>45673</v>
       </c>
       <c r="B189" s="1">
-        <v>5713.64</v>
+        <v>5937.34</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
-        <v>45555</v>
+      <c r="A190" s="2">
+        <v>45674</v>
       </c>
       <c r="B190" s="1">
-        <v>5702.55</v>
+        <v>5996.66</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
-        <v>45558</v>
-      </c>
-      <c r="B191" s="1">
-        <v>5718.57</v>
+      <c r="A191" s="2">
+        <v>45677</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
-        <v>45559</v>
+      <c r="A192" s="2">
+        <v>45678</v>
       </c>
       <c r="B192" s="1">
-        <v>5732.93</v>
+        <v>6049.24</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
-        <v>45560</v>
+      <c r="A193" s="2">
+        <v>45679</v>
       </c>
       <c r="B193" s="1">
-        <v>5722.26</v>
+        <v>6086.37</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
-        <v>45561</v>
+      <c r="A194" s="2">
+        <v>45680</v>
       </c>
       <c r="B194" s="1">
-        <v>5745.37</v>
+        <v>6118.71</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
-        <v>45562</v>
+      <c r="A195" s="2">
+        <v>45681</v>
       </c>
       <c r="B195" s="1">
-        <v>5738.17</v>
+        <v>6101.24</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
-        <v>45565</v>
+      <c r="A196" s="2">
+        <v>45684</v>
       </c>
       <c r="B196" s="1">
-        <v>5762.48</v>
+        <v>6012.28</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
-        <v>45566</v>
+      <c r="A197" s="2">
+        <v>45685</v>
       </c>
       <c r="B197" s="1">
-        <v>5708.75</v>
+        <v>6067.7</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
-        <v>45567</v>
+      <c r="A198" s="2">
+        <v>45686</v>
       </c>
       <c r="B198" s="1">
-        <v>5709.54</v>
+        <v>6039.31</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
-        <v>45568</v>
+      <c r="A199" s="2">
+        <v>45687</v>
       </c>
       <c r="B199" s="1">
-        <v>5699.94</v>
+        <v>6071.17</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
-        <v>45569</v>
+      <c r="A200" s="2">
+        <v>45688</v>
       </c>
       <c r="B200" s="1">
-        <v>5751.07</v>
+        <v>6040.53</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
-        <v>45572</v>
+      <c r="A201" s="2">
+        <v>45691</v>
       </c>
       <c r="B201" s="1">
-        <v>5695.94</v>
+        <v>5994.57</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
-        <v>45573</v>
+      <c r="A202" s="2">
+        <v>45692</v>
       </c>
       <c r="B202" s="1">
-        <v>5751.13</v>
+        <v>6037.88</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
-        <v>45574</v>
+      <c r="A203" s="2">
+        <v>45693</v>
       </c>
       <c r="B203" s="1">
-        <v>5792.04</v>
+        <v>6061.48</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
-        <v>45575</v>
+      <c r="A204" s="2">
+        <v>45694</v>
       </c>
       <c r="B204" s="1">
-        <v>5780.05</v>
+        <v>6083.57</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
-        <v>45576</v>
+      <c r="A205" s="2">
+        <v>45695</v>
       </c>
       <c r="B205" s="1">
-        <v>5815.03</v>
+        <v>6025.99</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
-        <v>45579</v>
+      <c r="A206" s="2">
+        <v>45698</v>
       </c>
       <c r="B206" s="1">
-        <v>5859.85</v>
+        <v>6066.44</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
-        <v>45580</v>
+      <c r="A207" s="2">
+        <v>45699</v>
       </c>
       <c r="B207" s="1">
-        <v>5815.26</v>
+        <v>6068.5</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
-        <v>45581</v>
+      <c r="A208" s="2">
+        <v>45700</v>
       </c>
       <c r="B208" s="1">
-        <v>5842.47</v>
+        <v>6051.97</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
-        <v>45582</v>
+      <c r="A209" s="2">
+        <v>45701</v>
       </c>
       <c r="B209" s="1">
-        <v>5841.47</v>
+        <v>6115.07</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
-        <v>45583</v>
+      <c r="A210" s="2">
+        <v>45702</v>
       </c>
       <c r="B210" s="1">
-        <v>5864.67</v>
+        <v>6114.63</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
-        <v>45586</v>
-      </c>
-      <c r="B211" s="1">
-        <v>5853.98</v>
+      <c r="A211" s="2">
+        <v>45705</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
-        <v>45587</v>
+      <c r="A212" s="2">
+        <v>45706</v>
       </c>
       <c r="B212" s="1">
-        <v>5851.2</v>
+        <v>6129.58</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
-        <v>45588</v>
+      <c r="A213" s="2">
+        <v>45707</v>
       </c>
       <c r="B213" s="1">
-        <v>5797.42</v>
+        <v>6144.15</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
-        <v>45589</v>
+      <c r="A214" s="2">
+        <v>45708</v>
       </c>
       <c r="B214" s="1">
-        <v>5809.86</v>
+        <v>6117.52</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="3">
-        <v>45590</v>
+      <c r="A215" s="2">
+        <v>45709</v>
       </c>
       <c r="B215" s="1">
-        <v>5808.12</v>
+        <v>6013.13</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
-        <v>45593</v>
+      <c r="A216" s="2">
+        <v>45712</v>
       </c>
       <c r="B216" s="1">
-        <v>5823.52</v>
+        <v>5983.25</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
-        <v>45594</v>
+      <c r="A217" s="2">
+        <v>45713</v>
       </c>
       <c r="B217" s="1">
-        <v>5832.92</v>
+        <v>5955.25</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
-        <v>45595</v>
+      <c r="A218" s="2">
+        <v>45714</v>
       </c>
       <c r="B218" s="1">
-        <v>5813.67</v>
+        <v>5956.06</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
-        <v>45596</v>
+      <c r="A219" s="2">
+        <v>45715</v>
       </c>
       <c r="B219" s="1">
-        <v>5705.45</v>
+        <v>5861.57</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
-        <v>45597</v>
+      <c r="A220" s="2">
+        <v>45716</v>
       </c>
       <c r="B220" s="1">
-        <v>5728.8</v>
+        <v>5954.5</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="3">
-        <v>45600</v>
+      <c r="A221" s="2">
+        <v>45719</v>
       </c>
       <c r="B221" s="1">
-        <v>5712.69</v>
+        <v>5849.72</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
-        <v>45601</v>
+      <c r="A222" s="2">
+        <v>45720</v>
       </c>
       <c r="B222" s="1">
-        <v>5782.76</v>
+        <v>5778.15</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="3">
-        <v>45602</v>
+      <c r="A223" s="2">
+        <v>45721</v>
       </c>
       <c r="B223" s="1">
-        <v>5929.04</v>
+        <v>5842.63</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
-        <v>45603</v>
+      <c r="A224" s="2">
+        <v>45722</v>
       </c>
       <c r="B224" s="1">
-        <v>5973.1</v>
+        <v>5738.52</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
-        <v>45604</v>
+      <c r="A225" s="2">
+        <v>45723</v>
       </c>
       <c r="B225" s="1">
-        <v>5995.54</v>
+        <v>5770.2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
-        <v>45607</v>
+      <c r="A226" s="2">
+        <v>45726</v>
       </c>
       <c r="B226" s="1">
-        <v>6001.35</v>
+        <v>5614.56</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
-        <v>45608</v>
+      <c r="A227" s="2">
+        <v>45727</v>
       </c>
       <c r="B227" s="1">
-        <v>5983.99</v>
+        <v>5572.07</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
-        <v>45609</v>
+      <c r="A228" s="2">
+        <v>45728</v>
       </c>
       <c r="B228" s="1">
-        <v>5985.38</v>
+        <v>5599.3</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
-        <v>45610</v>
+      <c r="A229" s="2">
+        <v>45729</v>
       </c>
       <c r="B229" s="1">
-        <v>5949.17</v>
+        <v>5521.52</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
-        <v>45611</v>
+      <c r="A230" s="2">
+        <v>45730</v>
       </c>
       <c r="B230" s="1">
-        <v>5870.62</v>
+        <v>5638.94</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
-        <v>45614</v>
+      <c r="A231" s="2">
+        <v>45733</v>
       </c>
       <c r="B231" s="1">
-        <v>5893.62</v>
+        <v>5675.12</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
-        <v>45615</v>
+      <c r="A232" s="2">
+        <v>45734</v>
       </c>
       <c r="B232" s="1">
-        <v>5916.98</v>
+        <v>5614.66</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
-        <v>45616</v>
+      <c r="A233" s="2">
+        <v>45735</v>
       </c>
       <c r="B233" s="1">
-        <v>5917.11</v>
+        <v>5675.29</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
-        <v>45617</v>
+      <c r="A234" s="2">
+        <v>45736</v>
       </c>
       <c r="B234" s="1">
-        <v>5948.71</v>
+        <v>5662.89</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
-        <v>45618</v>
+      <c r="A235" s="2">
+        <v>45737</v>
       </c>
       <c r="B235" s="1">
-        <v>5969.34</v>
+        <v>5667.56</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
-        <v>45621</v>
+      <c r="A236" s="2">
+        <v>45740</v>
       </c>
       <c r="B236" s="1">
-        <v>5987.37</v>
+        <v>5767.57</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="3">
-        <v>45622</v>
+      <c r="A237" s="2">
+        <v>45741</v>
       </c>
       <c r="B237" s="1">
-        <v>6021.63</v>
+        <v>5776.65</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
-        <v>45623</v>
+      <c r="A238" s="2">
+        <v>45742</v>
       </c>
       <c r="B238" s="1">
-        <v>5998.74</v>
+        <v>5712.2</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
-        <v>45624</v>
+      <c r="A239" s="2">
+        <v>45743</v>
+      </c>
+      <c r="B239" s="1">
+        <v>5693.31</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
-        <v>45625</v>
+      <c r="A240" s="2">
+        <v>45744</v>
       </c>
       <c r="B240" s="1">
-        <v>6032.38</v>
+        <v>5580.94</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="3">
-        <v>45628</v>
+      <c r="A241" s="2">
+        <v>45747</v>
       </c>
       <c r="B241" s="1">
-        <v>6047.15</v>
+        <v>5611.85</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
-        <v>45629</v>
+      <c r="A242" s="2">
+        <v>45748</v>
       </c>
       <c r="B242" s="1">
-        <v>6049.88</v>
+        <v>5633.07</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
-        <v>45630</v>
+      <c r="A243" s="2">
+        <v>45749</v>
       </c>
       <c r="B243" s="1">
-        <v>6086.49</v>
+        <v>5670.97</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
-        <v>45631</v>
+      <c r="A244" s="2">
+        <v>45750</v>
       </c>
       <c r="B244" s="1">
-        <v>6075.11</v>
+        <v>5396.52</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
-        <v>45632</v>
+      <c r="A245" s="2">
+        <v>45751</v>
       </c>
       <c r="B245" s="1">
-        <v>6090.27</v>
+        <v>5074.08</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
-        <v>45635</v>
+      <c r="A246" s="2">
+        <v>45754</v>
       </c>
       <c r="B246" s="1">
-        <v>6052.85</v>
+        <v>5062.25</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
-        <v>45636</v>
+      <c r="A247" s="2">
+        <v>45755</v>
       </c>
       <c r="B247" s="1">
-        <v>6034.91</v>
+        <v>4982.7700000000004</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
-        <v>45637</v>
+      <c r="A248" s="2">
+        <v>45756</v>
       </c>
       <c r="B248" s="1">
-        <v>6084.19</v>
+        <v>5456.9</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="3">
-        <v>45638</v>
+      <c r="A249" s="2">
+        <v>45757</v>
       </c>
       <c r="B249" s="1">
-        <v>6051.25</v>
+        <v>5268.05</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="3">
-        <v>45639</v>
+      <c r="A250" s="2">
+        <v>45758</v>
       </c>
       <c r="B250" s="1">
-        <v>6051.09</v>
+        <v>5363.36</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="3">
-        <v>45642</v>
+      <c r="A251" s="2">
+        <v>45761</v>
       </c>
       <c r="B251" s="1">
-        <v>6074.08</v>
+        <v>5405.97</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
-        <v>45643</v>
+      <c r="A252" s="2">
+        <v>45762</v>
       </c>
       <c r="B252" s="1">
-        <v>6050.61</v>
+        <v>5396.63</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
-        <v>45644</v>
+      <c r="A253" s="2">
+        <v>45763</v>
       </c>
       <c r="B253" s="1">
-        <v>5872.16</v>
+        <v>5275.7</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
-        <v>45645</v>
+      <c r="A254" s="2">
+        <v>45764</v>
       </c>
       <c r="B254" s="1">
-        <v>5867.08</v>
+        <v>5282.7</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
-        <v>45646</v>
-      </c>
-      <c r="B255" s="1">
-        <v>5930.85</v>
+      <c r="A255" s="2">
+        <v>45765</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
-        <v>45649</v>
+      <c r="A256" s="2">
+        <v>45768</v>
       </c>
       <c r="B256" s="1">
-        <v>5974.07</v>
+        <v>5158.2</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
-        <v>45650</v>
+      <c r="A257" s="2">
+        <v>45769</v>
       </c>
       <c r="B257" s="1">
-        <v>6040.04</v>
+        <v>5287.76</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
-        <v>45651</v>
+      <c r="A258" s="2">
+        <v>45770</v>
+      </c>
+      <c r="B258" s="1">
+        <v>5375.86</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
-        <v>45652</v>
+      <c r="A259" s="2">
+        <v>45771</v>
       </c>
       <c r="B259" s="1">
-        <v>6037.59</v>
+        <v>5484.77</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
-        <v>45653</v>
+      <c r="A260" s="2">
+        <v>45772</v>
       </c>
       <c r="B260" s="1">
-        <v>5970.84</v>
+        <v>5525.21</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
-        <v>45656</v>
+      <c r="A261" s="2">
+        <v>45775</v>
       </c>
       <c r="B261" s="1">
-        <v>5906.94</v>
+        <v>5528.75</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
-        <v>45657</v>
+      <c r="A262" s="2">
+        <v>45776</v>
       </c>
       <c r="B262" s="1">
-        <v>5881.63</v>
+        <v>5560.83</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="3">
-        <v>45658</v>
+      <c r="A263" s="2">
+        <v>45777</v>
+      </c>
+      <c r="B263" s="1">
+        <v>5569.06</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="3">
-        <v>45659</v>
+      <c r="A264" s="2">
+        <v>45778</v>
       </c>
       <c r="B264" s="1">
-        <v>5868.55</v>
+        <v>5604.14</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="3">
-        <v>45660</v>
+      <c r="A265" s="2">
+        <v>45779</v>
       </c>
       <c r="B265" s="1">
-        <v>5942.47</v>
+        <v>5686.67</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="3">
-        <v>45663</v>
+      <c r="A266" s="2">
+        <v>45782</v>
       </c>
       <c r="B266" s="1">
-        <v>5975.38</v>
+        <v>5650.38</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="3">
-        <v>45664</v>
+      <c r="A267" s="2">
+        <v>45783</v>
       </c>
       <c r="B267" s="1">
-        <v>5909.03</v>
+        <v>5606.91</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="3">
-        <v>45665</v>
+      <c r="A268" s="2">
+        <v>45784</v>
       </c>
       <c r="B268" s="1">
-        <v>5918.25</v>
+        <v>5631.28</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="3">
-        <v>45666</v>
+      <c r="A269" s="2">
+        <v>45785</v>
+      </c>
+      <c r="B269" s="1">
+        <v>5663.94</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="3">
-        <v>45667</v>
+      <c r="A270" s="2">
+        <v>45786</v>
       </c>
       <c r="B270" s="1">
-        <v>5827.04</v>
+        <v>5659.91</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="3">
-        <v>45670</v>
+      <c r="A271" s="2">
+        <v>45789</v>
       </c>
       <c r="B271" s="1">
-        <v>5836.22</v>
+        <v>5844.19</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="3">
-        <v>45671</v>
+      <c r="A272" s="2">
+        <v>45790</v>
       </c>
       <c r="B272" s="1">
-        <v>5842.91</v>
+        <v>5886.55</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="3">
-        <v>45672</v>
+      <c r="A273" s="2">
+        <v>45791</v>
       </c>
       <c r="B273" s="1">
-        <v>5949.91</v>
+        <v>5892.58</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
-        <v>45673</v>
+      <c r="A274" s="2">
+        <v>45792</v>
       </c>
       <c r="B274" s="1">
-        <v>5937.34</v>
+        <v>5916.93</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="3">
-        <v>45674</v>
+      <c r="A275" s="2">
+        <v>45793</v>
       </c>
       <c r="B275" s="1">
-        <v>5996.66</v>
+        <v>5958.38</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="3">
-        <v>45677</v>
+      <c r="A276" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B276" s="1">
+        <v>5963.6</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="3">
-        <v>45678</v>
+      <c r="A277" s="2">
+        <v>45797</v>
       </c>
       <c r="B277" s="1">
-        <v>6049.24</v>
+        <v>5940.46</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="3">
-        <v>45679</v>
+      <c r="A278" s="2">
+        <v>45798</v>
       </c>
       <c r="B278" s="1">
-        <v>6086.37</v>
+        <v>5844.61</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="3">
-        <v>45680</v>
+      <c r="A279" s="2">
+        <v>45799</v>
       </c>
       <c r="B279" s="1">
-        <v>6118.71</v>
+        <v>5842.01</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="3">
-        <v>45681</v>
+      <c r="A280" s="2">
+        <v>45800</v>
       </c>
       <c r="B280" s="1">
-        <v>6101.24</v>
+        <v>5802.82</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="3">
-        <v>45684</v>
-      </c>
-      <c r="B281" s="1">
-        <v>6012.28</v>
+      <c r="A281" s="2">
+        <v>45803</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="3">
-        <v>45685</v>
+      <c r="A282" s="2">
+        <v>45804</v>
       </c>
       <c r="B282" s="1">
-        <v>6067.7</v>
+        <v>5921.54</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="3">
-        <v>45686</v>
+      <c r="A283" s="2">
+        <v>45805</v>
       </c>
       <c r="B283" s="1">
-        <v>6039.31</v>
+        <v>5888.55</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="3">
-        <v>45687</v>
+      <c r="A284" s="2">
+        <v>45806</v>
       </c>
       <c r="B284" s="1">
-        <v>6071.17</v>
+        <v>5912.17</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="3">
-        <v>45688</v>
+      <c r="A285" s="2">
+        <v>45807</v>
       </c>
       <c r="B285" s="1">
-        <v>6040.53</v>
+        <v>5911.69</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="3">
-        <v>45691</v>
+      <c r="A286" s="2">
+        <v>45810</v>
       </c>
       <c r="B286" s="1">
-        <v>5994.57</v>
+        <v>5935.94</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="3">
-        <v>45692</v>
+      <c r="A287" s="2">
+        <v>45811</v>
       </c>
       <c r="B287" s="1">
-        <v>6037.88</v>
+        <v>5970.37</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="3">
-        <v>45693</v>
+      <c r="A288" s="2">
+        <v>45812</v>
       </c>
       <c r="B288" s="1">
-        <v>6061.48</v>
+        <v>5970.81</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="3">
-        <v>45694</v>
+      <c r="A289" s="2">
+        <v>45813</v>
       </c>
       <c r="B289" s="1">
-        <v>6083.57</v>
+        <v>5939.3</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="3">
-        <v>45695</v>
+      <c r="A290" s="2">
+        <v>45814</v>
       </c>
       <c r="B290" s="1">
-        <v>6025.99</v>
+        <v>6000.36</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="3">
-        <v>45698</v>
+      <c r="A291" s="2">
+        <v>45817</v>
       </c>
       <c r="B291" s="1">
-        <v>6066.44</v>
+        <v>6005.88</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="3">
-        <v>45699</v>
+      <c r="A292" s="2">
+        <v>45818</v>
       </c>
       <c r="B292" s="1">
-        <v>6068.5</v>
+        <v>6038.81</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="3">
-        <v>45700</v>
+      <c r="A293" s="2">
+        <v>45819</v>
       </c>
       <c r="B293" s="1">
-        <v>6051.97</v>
+        <v>6022.24</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="3">
-        <v>45701</v>
+      <c r="A294" s="2">
+        <v>45820</v>
       </c>
       <c r="B294" s="1">
-        <v>6115.07</v>
+        <v>6045.26</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="3">
-        <v>45702</v>
+      <c r="A295" s="2">
+        <v>45821</v>
       </c>
       <c r="B295" s="1">
-        <v>6114.63</v>
+        <v>5976.97</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="3">
-        <v>45705</v>
+      <c r="A296" s="2">
+        <v>45824</v>
+      </c>
+      <c r="B296" s="1">
+        <v>6033.11</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="3">
-        <v>45706</v>
+      <c r="A297" s="2">
+        <v>45825</v>
       </c>
       <c r="B297" s="1">
-        <v>6129.58</v>
+        <v>5982.72</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="3">
-        <v>45707</v>
+      <c r="A298" s="2">
+        <v>45826</v>
       </c>
       <c r="B298" s="1">
-        <v>6144.15</v>
+        <v>5980.87</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="3">
-        <v>45708</v>
-      </c>
-      <c r="B299" s="1">
-        <v>6117.52</v>
+      <c r="A299" s="2">
+        <v>45827</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="3">
-        <v>45709</v>
+      <c r="A300" s="2">
+        <v>45828</v>
       </c>
       <c r="B300" s="1">
-        <v>6013.13</v>
+        <v>5967.84</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="3">
-        <v>45712</v>
+      <c r="A301" s="2">
+        <v>45831</v>
       </c>
       <c r="B301" s="1">
-        <v>5983.25</v>
+        <v>6025.17</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="3">
-        <v>45713</v>
+      <c r="A302" s="2">
+        <v>45832</v>
       </c>
       <c r="B302" s="1">
-        <v>5955.25</v>
+        <v>6092.18</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="3">
-        <v>45714</v>
+      <c r="A303" s="2">
+        <v>45833</v>
       </c>
       <c r="B303" s="1">
-        <v>5956.06</v>
+        <v>6092.16</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="3">
-        <v>45715</v>
+      <c r="A304" s="2">
+        <v>45834</v>
       </c>
       <c r="B304" s="1">
-        <v>5861.57</v>
+        <v>6141.02</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="3">
-        <v>45716</v>
+      <c r="A305" s="2">
+        <v>45835</v>
       </c>
       <c r="B305" s="1">
-        <v>5954.5</v>
+        <v>6173.07</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="3">
-        <v>45719</v>
+      <c r="A306" s="2">
+        <v>45838</v>
       </c>
       <c r="B306" s="1">
-        <v>5849.72</v>
+        <v>6204.95</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="3">
-        <v>45720</v>
+      <c r="A307" s="2">
+        <v>45839</v>
       </c>
       <c r="B307" s="1">
-        <v>5778.15</v>
+        <v>6198.01</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="3">
-        <v>45721</v>
+      <c r="A308" s="2">
+        <v>45840</v>
       </c>
       <c r="B308" s="1">
-        <v>5842.63</v>
+        <v>6227.42</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="3">
-        <v>45722</v>
+      <c r="A309" s="2">
+        <v>45841</v>
       </c>
       <c r="B309" s="1">
-        <v>5738.52</v>
+        <v>6279.35</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="3">
-        <v>45723</v>
-      </c>
-      <c r="B310" s="1">
-        <v>5770.2</v>
+      <c r="A310" s="2">
+        <v>45842</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="3">
-        <v>45726</v>
+      <c r="A311" s="2">
+        <v>45845</v>
       </c>
       <c r="B311" s="1">
-        <v>5614.56</v>
+        <v>6229.98</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="3">
-        <v>45727</v>
-      </c>
-      <c r="B312" s="1">
-        <v>5572.07</v>
-      </c>
+      <c r="B312"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="3">
-        <v>45728</v>
-      </c>
-      <c r="B313" s="1">
-        <v>5599.3</v>
-      </c>
+      <c r="B313"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="3">
-        <v>45729</v>
-      </c>
-      <c r="B314" s="1">
-        <v>5521.52</v>
-      </c>
+      <c r="B314"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="3">
-        <v>45730</v>
-      </c>
-      <c r="B315" s="1">
-        <v>5638.94</v>
-      </c>
+      <c r="B315"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="3">
-        <v>45733</v>
-      </c>
-      <c r="B316" s="1">
-        <v>5675.12</v>
-      </c>
+      <c r="B316"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="3">
-        <v>45734</v>
-      </c>
-      <c r="B317" s="1">
-        <v>5614.66</v>
-      </c>
+      <c r="B317"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="3">
-        <v>45735</v>
-      </c>
-      <c r="B318" s="1">
-        <v>5675.29</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="3">
-        <v>45736</v>
-      </c>
-      <c r="B319" s="1">
-        <v>5662.89</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="3">
-        <v>45737</v>
-      </c>
-      <c r="B320" s="1">
-        <v>5667.56</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="3">
-        <v>45740</v>
-      </c>
-      <c r="B321" s="1">
-        <v>5767.57</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="3">
-        <v>45741</v>
-      </c>
-      <c r="B322" s="1">
-        <v>5776.65</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="3">
-        <v>45742</v>
-      </c>
-      <c r="B323" s="1">
-        <v>5712.2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="3">
-        <v>45743</v>
-      </c>
-      <c r="B324" s="1">
-        <v>5693.31</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="3">
-        <v>45744</v>
-      </c>
-      <c r="B325" s="1">
-        <v>5580.94</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="3">
-        <v>45747</v>
-      </c>
-      <c r="B326" s="1">
-        <v>5611.85</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="3">
-        <v>45748</v>
-      </c>
-      <c r="B327" s="1">
-        <v>5633.07</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="3">
-        <v>45749</v>
-      </c>
-      <c r="B328" s="1">
-        <v>5670.97</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="3">
-        <v>45750</v>
-      </c>
-      <c r="B329" s="1">
-        <v>5396.52</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="3">
-        <v>45751</v>
-      </c>
-      <c r="B330" s="1">
-        <v>5074.08</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="3">
-        <v>45754</v>
-      </c>
-      <c r="B331" s="1">
-        <v>5062.25</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="3">
-        <v>45755</v>
-      </c>
-      <c r="B332" s="1">
-        <v>4982.7700000000004</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="3">
-        <v>45756</v>
-      </c>
-      <c r="B333" s="1">
-        <v>5456.9</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="3">
-        <v>45757</v>
-      </c>
-      <c r="B334" s="1">
-        <v>5268.05</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="3">
-        <v>45758</v>
-      </c>
-      <c r="B335" s="1">
-        <v>5363.36</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="3">
-        <v>45761</v>
-      </c>
-      <c r="B336" s="1">
-        <v>5405.97</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="3">
-        <v>45762</v>
-      </c>
-      <c r="B337" s="1">
-        <v>5396.63</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="3">
-        <v>45763</v>
-      </c>
-      <c r="B338" s="1">
-        <v>5275.7</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="3">
-        <v>45764</v>
-      </c>
-      <c r="B339" s="1">
-        <v>5282.7</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="3">
-        <v>45765</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="3">
-        <v>45768</v>
-      </c>
-      <c r="B341" s="1">
-        <v>5158.2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="3">
-        <v>45769</v>
-      </c>
-      <c r="B342" s="1">
-        <v>5287.76</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="3">
-        <v>45770</v>
-      </c>
-      <c r="B343" s="1">
-        <v>5375.86</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="3">
-        <v>45771</v>
-      </c>
-      <c r="B344" s="1">
-        <v>5484.77</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="3">
-        <v>45772</v>
-      </c>
-      <c r="B345" s="1">
-        <v>5525.21</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="3">
-        <v>45775</v>
-      </c>
-      <c r="B346" s="1">
-        <v>5528.75</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="3">
-        <v>45776</v>
-      </c>
-      <c r="B347" s="1">
-        <v>5560.83</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="3">
-        <v>45777</v>
-      </c>
-      <c r="B348" s="1">
-        <v>5569.06</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="3">
-        <v>45778</v>
-      </c>
-      <c r="B349" s="1">
-        <v>5604.14</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="3">
-        <v>45779</v>
-      </c>
-      <c r="B350" s="1">
-        <v>5686.67</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="3">
-        <v>45782</v>
-      </c>
-      <c r="B351" s="1">
-        <v>5650.38</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="3">
-        <v>45783</v>
-      </c>
-      <c r="B352" s="1">
-        <v>5606.91</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="3">
-        <v>45784</v>
-      </c>
-      <c r="B353" s="1">
-        <v>5631.28</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="3">
-        <v>45785</v>
-      </c>
-      <c r="B354" s="1">
-        <v>5663.94</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="3">
-        <v>45786</v>
-      </c>
-      <c r="B355" s="1">
-        <v>5659.91</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="3">
-        <v>45789</v>
-      </c>
-      <c r="B356" s="1">
-        <v>5844.19</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="3">
-        <v>45790</v>
-      </c>
-      <c r="B357" s="1">
-        <v>5886.55</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="3">
-        <v>45791</v>
-      </c>
-      <c r="B358" s="1">
-        <v>5892.58</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="3">
-        <v>45792</v>
-      </c>
-      <c r="B359" s="1">
-        <v>5916.93</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="3">
-        <v>45793</v>
-      </c>
-      <c r="B360" s="1">
-        <v>5958.38</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="3">
-        <v>45796</v>
-      </c>
-      <c r="B361" s="1">
-        <v>5963.6</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="3">
-        <v>45797</v>
-      </c>
-      <c r="B362" s="1">
-        <v>5940.46</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="3">
-        <v>45798</v>
-      </c>
-      <c r="B363" s="1">
-        <v>5844.61</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="3">
-        <v>45799</v>
-      </c>
-      <c r="B364" s="1">
-        <v>5842.01</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="3">
-        <v>45800</v>
-      </c>
-      <c r="B365" s="1">
-        <v>5802.82</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="3">
-        <v>45803</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="3">
-        <v>45804</v>
-      </c>
-      <c r="B367" s="1">
-        <v>5921.54</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="3">
-        <v>45805</v>
-      </c>
-      <c r="B368" s="1">
-        <v>5888.55</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="3">
-        <v>45806</v>
-      </c>
-      <c r="B369" s="1">
-        <v>5912.17</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="3">
-        <v>45807</v>
-      </c>
-      <c r="B370" s="1">
-        <v>5911.69</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="3">
-        <v>45810</v>
-      </c>
-      <c r="B371" s="1">
-        <v>5935.94</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="3">
-        <v>45811</v>
-      </c>
-      <c r="B372" s="1">
-        <v>5970.37</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="3">
-        <v>45812</v>
-      </c>
-      <c r="B373" s="1">
-        <v>5970.81</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="3">
-        <v>45813</v>
-      </c>
-      <c r="B374" s="1">
-        <v>5939.3</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="3">
-        <v>45814</v>
-      </c>
-      <c r="B375" s="1">
-        <v>6000.36</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="3">
-        <v>45817</v>
-      </c>
-      <c r="B376" s="1">
-        <v>6005.88</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="3">
-        <v>45818</v>
-      </c>
-      <c r="B377" s="1">
-        <v>6038.81</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="3">
-        <v>45819</v>
-      </c>
-      <c r="B378" s="1">
-        <v>6022.24</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="3">
-        <v>45820</v>
-      </c>
-      <c r="B379" s="1">
-        <v>6045.26</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="3">
-        <v>45821</v>
-      </c>
-      <c r="B380" s="1">
-        <v>5976.97</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="3">
-        <v>45824</v>
-      </c>
-      <c r="B381" s="1">
-        <v>6033.11</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="3">
-        <v>45825</v>
-      </c>
-      <c r="B382" s="1">
-        <v>5982.72</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="3">
-        <v>45826</v>
-      </c>
-      <c r="B383" s="1">
-        <v>5980.87</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="3">
-        <v>45827</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="3">
-        <v>45828</v>
-      </c>
-      <c r="B385" s="1">
-        <v>5967.84</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="3">
-        <v>45831</v>
-      </c>
-      <c r="B386" s="1">
-        <v>6025.17</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="3">
-        <v>45832</v>
-      </c>
-      <c r="B387" s="1">
-        <v>6092.18</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="3">
-        <v>45833</v>
-      </c>
-      <c r="B388" s="1">
-        <v>6092.16</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="3">
-        <v>45834</v>
-      </c>
-      <c r="B389" s="1">
-        <v>6141.02</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="3">
-        <v>45835</v>
-      </c>
-      <c r="B390" s="1">
-        <v>6173.07</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="3">
-        <v>45838</v>
-      </c>
-      <c r="B391" s="1">
-        <v>6204.95</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="3">
-        <v>45839</v>
-      </c>
-      <c r="B392" s="1">
-        <v>6198.01</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="3">
-        <v>45840</v>
-      </c>
-      <c r="B393" s="1">
-        <v>6227.42</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="3">
-        <v>45841</v>
-      </c>
-      <c r="B394" s="1">
-        <v>6279.35</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="3">
-        <v>45842</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="3">
-        <v>45845</v>
-      </c>
-      <c r="B396" s="1">
-        <v>6229.98</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="3">
-        <v>45846</v>
-      </c>
-      <c r="B397" s="1">
-        <v>6225.52</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="3">
-        <v>45847</v>
-      </c>
-      <c r="B398" s="1">
-        <v>6263.26</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="3">
-        <v>45848</v>
-      </c>
-      <c r="B399" s="1">
-        <v>6280.46</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="3">
-        <v>45849</v>
-      </c>
-      <c r="B400" s="1">
-        <v>6259.75</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="3">
-        <v>45852</v>
-      </c>
-      <c r="B401" s="1">
-        <v>6268.56</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="3">
-        <v>45853</v>
-      </c>
-      <c r="B402" s="1">
-        <v>6243.76</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="3">
-        <v>45854</v>
-      </c>
-      <c r="B403" s="1">
-        <v>6263.7</v>
-      </c>
+      <c r="B318"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
